--- a/data/FUT Elfmeter.xlsx
+++ b/data/FUT Elfmeter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Dokumente\FIFA Stats\FIFA 19\penaltyApp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/292750a0b8f224d0/Dokumente/FIFA_Stats/FIFA 19/penalty_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1038" documentId="6_{9EA5F3DB-2391-4D2A-9E9A-EA865E3C7C7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EFE75BD1-B41B-4EA8-9089-85D0073AA197}"/>
+  <xr:revisionPtr revIDLastSave="1058" documentId="6_{9EA5F3DB-2391-4D2A-9E9A-EA865E3C7C7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7AC18DAB-1F97-4C3F-9046-FA78CEE50907}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eigene Elfmeter" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="75">
   <si>
     <t>Spielminute</t>
-  </si>
-  <si>
-    <t>Füßigkeit</t>
   </si>
   <si>
     <t>Nr.</t>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>Division</t>
-  </si>
-  <si>
-    <t>Position (Schuss)</t>
   </si>
   <si>
     <t>Position (Torwart)</t>
@@ -265,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +271,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,7 +553,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="45">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -566,6 +566,20 @@
         <vertical style="thin">
           <color auto="1"/>
         </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
         <horizontal/>
       </border>
     </dxf>
@@ -1186,64 +1200,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle5" displayName="Tabelle5" ref="A3:L53" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle5" displayName="Tabelle5" ref="A3:L53" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="A3:L53" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nr." dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{F3683E6F-0F0E-4B44-A801-B8FDD471880B}" name="Spielnummer" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tor" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Schussposition" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{99194437-F4A9-4831-B4E0-F752DE2DDBC9}" name="Fuss" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Torwartposition" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{2EEA1BDA-BC64-45BA-BDC2-EB555CC2B420}" name="Blickrichtung" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{0450464E-F192-4B02-94B7-5EDF3EA6040E}" name="Ablenkung (TW)" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Spielminute" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Spielstand" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{D9E66486-7E78-4721-8A76-A449B586DAD8}" name="Division" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Datum" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nr." dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{F3683E6F-0F0E-4B44-A801-B8FDD471880B}" name="Spielnummer" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tor" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Schussposition" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{99194437-F4A9-4831-B4E0-F752DE2DDBC9}" name="Fuss" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Torwartposition" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{2EEA1BDA-BC64-45BA-BDC2-EB555CC2B420}" name="Blickrichtung" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{0450464E-F192-4B02-94B7-5EDF3EA6040E}" name="Ablenkung (TW)" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Spielminute" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Spielstand" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{D9E66486-7E78-4721-8A76-A449B586DAD8}" name="Division" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Datum" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078212FA-148A-434F-A3B9-4667FA38EB4B}" name="Tabelle52" displayName="Tabelle52" ref="A3:L39" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078212FA-148A-434F-A3B9-4667FA38EB4B}" name="Tabelle52" displayName="Tabelle52" ref="A3:L39" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A3:L39" xr:uid="{6153FB45-19CD-414B-A982-D7F756AF26A0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L39">
     <sortCondition ref="A3:A39"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{8BF1042C-B003-43DE-B9FC-3620FEFF0B26}" name="Nr." dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{CD1D5CF0-BC3F-4A3C-B62A-C69DF8EBAE55}" name="Spielnummer" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{6854CF6E-FCB4-4A45-9517-47ECF4086E2E}" name="Tor" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{BC642B6C-BD8F-4A78-96C1-C8B3F9086BF9}" name="Schussposition" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{F0B70037-FB70-4433-A503-76FD0C8AC898}" name="Fuss" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{45DC129A-9F5C-426C-8239-530C3A8C6674}" name="Torwartposition" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{447C0155-4ECF-4EF5-93CA-100B6A3747A0}" name="Blickrichtung" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{A4A56A54-509E-4922-ADC7-1ACCC0F7B4E5}" name="Ablenkung (TW)" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{2316AE68-EF62-4D62-A2DB-213EA1C2588F}" name="Spielminute" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{C074885E-23D6-4B6D-AE77-DAC930ABC552}" name="Spielstand" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{66F0736F-F9CA-49D2-A4AB-4600A527AC32}" name="Division" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{7DD24317-EB47-4F39-9AD7-DC62BED0E500}" name="Datum" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{8BF1042C-B003-43DE-B9FC-3620FEFF0B26}" name="Nr." dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{CD1D5CF0-BC3F-4A3C-B62A-C69DF8EBAE55}" name="Spielnummer" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{6854CF6E-FCB4-4A45-9517-47ECF4086E2E}" name="Tor" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{BC642B6C-BD8F-4A78-96C1-C8B3F9086BF9}" name="Schussposition" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{F0B70037-FB70-4433-A503-76FD0C8AC898}" name="Fuss" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{45DC129A-9F5C-426C-8239-530C3A8C6674}" name="Torwartposition" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{447C0155-4ECF-4EF5-93CA-100B6A3747A0}" name="Blickrichtung" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{A4A56A54-509E-4922-ADC7-1ACCC0F7B4E5}" name="Ablenkung (TW)" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{2316AE68-EF62-4D62-A2DB-213EA1C2588F}" name="Spielminute" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{C074885E-23D6-4B6D-AE77-DAC930ABC552}" name="Spielstand" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{66F0736F-F9CA-49D2-A4AB-4600A527AC32}" name="Division" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{7DD24317-EB47-4F39-9AD7-DC62BED0E500}" name="Datum" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E45CC0EC-5C01-43A5-9783-D0DE7C51967E}" name="Tabelle523" displayName="Tabelle523" ref="A3:K96" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A3:K96" xr:uid="{00881C52-B65D-4620-9720-B7C55632664F}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DBFEA884-167F-4704-9E7E-16DBE8780B7A}" name="Spielnummer" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{6DB1D0D4-2DDD-4551-9B8D-1253D57DF30E}" name="Schuss-Nr" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{15D20206-33D8-4046-B1F1-B6D130DE4BC6}" name="Aktiver Spieler" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{41936F0F-D96B-4822-90AA-259DAA3B3D1D}" name="Tor" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{2A9AF8F3-7CC9-491A-ACF7-6BAFD2140633}" name="Position (Schuss)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{355284BB-17A1-49B0-848C-7EE096949BE8}" name="Füßigkeit" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{DE82CB02-9B9E-4A4A-B074-0326208D7CA6}" name="Position (Torwart)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{18ED35FF-E561-4DD7-80E2-37DC7682C749}" name="Blickrichtung" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{744394A6-13C1-4AEF-A521-341BE5142394}" name="TW Trick" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{60C48DC5-DB1C-41AB-9B78-4C4ECBC082CE}" name="Division" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E45CC0EC-5C01-43A5-9783-D0DE7C51967E}" name="Tabelle523" displayName="Tabelle523" ref="A3:L96" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A3:L96" xr:uid="{00881C52-B65D-4620-9720-B7C55632664F}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{DBFEA884-167F-4704-9E7E-16DBE8780B7A}" name="Spielnummer" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{6DB1D0D4-2DDD-4551-9B8D-1253D57DF30E}" name="Schuss-Nr" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{15D20206-33D8-4046-B1F1-B6D130DE4BC6}" name="Aktiver Spieler" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{41936F0F-D96B-4822-90AA-259DAA3B3D1D}" name="Tor" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2A9AF8F3-7CC9-491A-ACF7-6BAFD2140633}" name="Schussposition" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{355284BB-17A1-49B0-848C-7EE096949BE8}" name="Fuss" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DE82CB02-9B9E-4A4A-B074-0326208D7CA6}" name="Position (Torwart)" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{18ED35FF-E561-4DD7-80E2-37DC7682C749}" name="Blickrichtung" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{744394A6-13C1-4AEF-A521-341BE5142394}" name="TW Trick" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{60C48DC5-DB1C-41AB-9B78-4C4ECBC082CE}" name="Division" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{31B6ADAF-FFDF-4F27-B501-C252A56F5A49}" name="Spielminute" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{0C637541-7D42-4172-A32C-C887EC8B0BD8}" name="Datum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1553,7 +1568,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1583,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -1586,7 +1601,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -1603,40 +1618,40 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>76</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1647,27 +1662,27 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="7">
         <v>50</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L4" s="8"/>
     </row>
@@ -1679,27 +1694,27 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="7">
         <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L5" s="8"/>
     </row>
@@ -1711,23 +1726,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="7"/>
       <c r="J6" s="13"/>
       <c r="K6" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L6" s="8"/>
     </row>
@@ -1739,23 +1754,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="7"/>
       <c r="J7" s="13"/>
       <c r="K7" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -1767,31 +1782,31 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7">
         <v>8</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L8" s="16">
         <v>43436</v>
@@ -1805,31 +1820,31 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" s="7">
         <v>84</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L9" s="16">
         <v>43436</v>
@@ -1843,31 +1858,31 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7">
         <v>45</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L10" s="16">
         <v>43436</v>
@@ -1881,31 +1896,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
         <v>49</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L11" s="16">
         <v>43436</v>
@@ -1919,31 +1934,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="7">
         <v>50</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L12" s="16">
         <v>43444</v>
@@ -1957,31 +1972,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
         <v>55</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L13" s="16">
         <v>43446</v>
@@ -1995,31 +2010,31 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
         <v>55</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L14" s="16">
         <v>43449</v>
@@ -2033,31 +2048,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
         <v>50</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L15" s="16">
         <v>43450</v>
@@ -2071,31 +2086,31 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7">
         <v>14</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L16" s="16">
         <v>43453</v>
@@ -2109,31 +2124,31 @@
         <v>21</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
         <v>44</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L17" s="16">
         <v>43457</v>
@@ -2147,31 +2162,31 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I18" s="7">
         <v>94</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L18" s="16">
         <v>43467</v>
@@ -2185,31 +2200,31 @@
         <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
         <v>16</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L19" s="16">
         <v>43497</v>
@@ -2223,31 +2238,31 @@
         <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I20" s="7">
         <v>78</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L20" s="16">
         <v>43497</v>
@@ -2261,31 +2276,31 @@
         <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I21" s="7">
         <v>70</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L21" s="16">
         <v>43499</v>
@@ -2299,31 +2314,31 @@
         <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7">
         <v>56</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L22" s="16">
         <v>43511</v>
@@ -2337,31 +2352,31 @@
         <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
         <v>40</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L23" s="16">
         <v>43512</v>
@@ -2375,31 +2390,31 @@
         <v>35</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
         <v>59</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L24" s="16">
         <v>43515</v>
@@ -2413,31 +2428,31 @@
         <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I25" s="7">
         <v>12</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L25" s="16">
         <v>43521</v>
@@ -2451,31 +2466,31 @@
         <v>41</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I26" s="7">
         <v>25</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L26" s="16">
         <v>43530</v>
@@ -2489,31 +2504,31 @@
         <v>43</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I27" s="7">
         <v>84</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L27" s="16">
         <v>43532</v>
@@ -2527,31 +2542,31 @@
         <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I28" s="7">
         <v>33</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L28" s="16">
         <v>43535</v>
@@ -2565,31 +2580,31 @@
         <v>49</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I29" s="7">
         <v>69</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L29" s="16">
         <v>43537</v>
@@ -2603,31 +2618,31 @@
         <v>51</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I30" s="7">
         <v>27</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L30" s="16">
         <v>43538</v>
@@ -2641,31 +2656,31 @@
         <v>52</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I31" s="7">
         <v>70</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L31" s="16">
         <v>43539</v>
@@ -2679,31 +2694,31 @@
         <v>53</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I32" s="7">
         <v>15</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L32" s="16">
         <v>43539</v>
@@ -2717,31 +2732,31 @@
         <v>55</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I33" s="7">
         <v>28</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L33" s="16">
         <v>43540</v>
@@ -2755,31 +2770,31 @@
         <v>56</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I34" s="7">
         <v>35</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L34" s="16">
         <v>43541</v>
@@ -2793,31 +2808,31 @@
         <v>56</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I35" s="7">
         <v>67</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L35" s="16">
         <v>43541</v>
@@ -2831,31 +2846,31 @@
         <v>57</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I36" s="7">
         <v>74</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L36" s="16">
         <v>43541</v>
@@ -2869,31 +2884,31 @@
         <v>58</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I37" s="7">
         <v>3</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L37" s="16">
         <v>43541</v>
@@ -2907,31 +2922,31 @@
         <v>59</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E38" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I38" s="7">
         <v>57</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L38" s="16">
         <v>43541</v>
@@ -2945,31 +2960,31 @@
         <v>60</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I39" s="7">
         <v>12</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L39" s="16">
         <v>43541</v>
@@ -2983,31 +2998,31 @@
         <v>62</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I40" s="7">
         <v>6</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L40" s="16">
         <v>43547</v>
@@ -3021,31 +3036,31 @@
         <v>63</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I41" s="7">
         <v>81</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L41" s="16">
         <v>43550</v>
@@ -3059,31 +3074,31 @@
         <v>64</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I42" s="7">
         <v>47</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L42" s="16">
         <v>43554</v>
@@ -3097,31 +3112,31 @@
         <v>65</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I43" s="7">
         <v>64</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L43" s="16">
         <v>43556</v>
@@ -3135,31 +3150,31 @@
         <v>66</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I44" s="7">
         <v>74</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L44" s="16">
         <v>43558</v>
@@ -3173,31 +3188,31 @@
         <v>68</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I45" s="7">
         <v>80</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L45" s="16">
         <v>43560</v>
@@ -3211,31 +3226,31 @@
         <v>70</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I46" s="7">
         <v>50</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L46" s="16">
         <v>43561</v>
@@ -3249,31 +3264,31 @@
         <v>71</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I47" s="7">
         <v>4</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L47" s="16">
         <v>43561</v>
@@ -3287,31 +3302,31 @@
         <v>73</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I48" s="7">
         <v>41</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L48" s="16">
         <v>43563</v>
@@ -3325,31 +3340,31 @@
         <v>74</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I49" s="7">
         <v>54</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L49" s="16">
         <v>43563</v>
@@ -3363,31 +3378,31 @@
         <v>77</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I50" s="7">
         <v>30</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L50" s="16">
         <v>43563</v>
@@ -3401,31 +3416,31 @@
         <v>78</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I51" s="7">
         <v>19</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L51" s="16">
         <v>43567</v>
@@ -3439,31 +3454,31 @@
         <v>79</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I52" s="7">
         <v>48</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L52" s="16">
         <v>43568</v>
@@ -3477,31 +3492,31 @@
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E53" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I53" s="7">
         <v>85</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L53" s="32">
         <v>43568</v>
@@ -4322,8 +4337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B462760-A9A2-4682-999D-BBB6D866BE91}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4333,7 +4348,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -4349,7 +4364,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -4365,40 +4380,40 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>76</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -4409,27 +4424,27 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="33">
         <v>74</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L4" s="9"/>
     </row>
@@ -4441,13 +4456,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="14"/>
@@ -4456,10 +4471,10 @@
         <v>69</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L5" s="9"/>
     </row>
@@ -4471,13 +4486,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="14"/>
@@ -4485,7 +4500,7 @@
       <c r="I6" s="33"/>
       <c r="J6" s="13"/>
       <c r="K6" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L6" s="9"/>
     </row>
@@ -4497,31 +4512,31 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="33">
         <v>7</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="16">
         <v>43444</v>
@@ -4535,31 +4550,31 @@
         <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="33">
         <v>30</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L8" s="16">
         <v>43448</v>
@@ -4573,31 +4588,31 @@
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" s="33">
         <v>50</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L9" s="16">
         <v>43450</v>
@@ -4611,31 +4626,31 @@
         <v>16</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="33">
         <v>40</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L10" s="16">
         <v>43455</v>
@@ -4649,31 +4664,31 @@
         <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" s="33">
         <v>12</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L11" s="16">
         <v>43456</v>
@@ -4687,31 +4702,31 @@
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="33">
         <v>60</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L12" s="16">
         <v>43456</v>
@@ -4725,31 +4740,31 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" s="33">
         <v>17</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L13" s="16">
         <v>43456</v>
@@ -4763,31 +4778,31 @@
         <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" s="33">
         <v>88</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L14" s="16">
         <v>43457</v>
@@ -4801,31 +4816,31 @@
         <v>22</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" s="36">
         <v>10</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" s="16">
         <v>43459</v>
@@ -4839,31 +4854,31 @@
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="36">
         <v>80</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L16" s="16">
         <v>43462</v>
@@ -4877,31 +4892,31 @@
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I17" s="36">
         <v>55</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L17" s="16">
         <v>43464</v>
@@ -4915,31 +4930,31 @@
         <v>27</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I18" s="36">
         <v>84</v>
       </c>
       <c r="J18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="L18" s="16">
         <v>43469</v>
@@ -4953,31 +4968,31 @@
         <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I19" s="36">
         <v>4</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L19" s="16">
         <v>43489</v>
@@ -4991,31 +5006,31 @@
         <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I20" s="36">
         <v>88</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L20" s="16">
         <v>43500</v>
@@ -5029,31 +5044,31 @@
         <v>34</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I21" s="36">
         <v>69</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L21" s="16">
         <v>43515</v>
@@ -5067,31 +5082,31 @@
         <v>36</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I22" s="36">
         <v>6</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L22" s="16">
         <v>43515</v>
@@ -5105,31 +5120,31 @@
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I23" s="36">
         <v>82</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L23" s="16">
         <v>43520</v>
@@ -5143,31 +5158,31 @@
         <v>38</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I24" s="36">
         <v>92</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L24" s="16">
         <v>43521</v>
@@ -5181,31 +5196,31 @@
         <v>39</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I25" s="36">
         <v>77</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L25" s="16">
         <v>43521</v>
@@ -5219,31 +5234,31 @@
         <v>40</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I26" s="36">
         <v>35</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L26" s="16">
         <v>43521</v>
@@ -5257,31 +5272,31 @@
         <v>42</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I27" s="36">
         <v>110</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L27" s="16">
         <v>43532</v>
@@ -5295,31 +5310,31 @@
         <v>44</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I28" s="36">
         <v>68</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L28" s="16">
         <v>43532</v>
@@ -5333,31 +5348,31 @@
         <v>45</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I29" s="36">
         <v>91</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L29" s="16">
         <v>43532</v>
@@ -5371,31 +5386,31 @@
         <v>47</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I30" s="36">
         <v>69</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L30" s="16">
         <v>43537</v>
@@ -5409,31 +5424,31 @@
         <v>48</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I31" s="36">
         <v>8</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L31" s="16">
         <v>43537</v>
@@ -5447,31 +5462,31 @@
         <v>50</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I32" s="36">
         <v>49</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L32" s="16">
         <v>43537</v>
@@ -5485,31 +5500,31 @@
         <v>54</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I33" s="36">
         <v>72</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L33" s="16">
         <v>43540</v>
@@ -5523,31 +5538,31 @@
         <v>61</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I34" s="36">
         <v>10</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L34" s="16">
         <v>43542</v>
@@ -5561,31 +5576,31 @@
         <v>67</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E35" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I35" s="36">
         <v>90</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L35" s="16">
         <v>43559</v>
@@ -5599,31 +5614,31 @@
         <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I36" s="36">
         <v>13</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L36" s="16">
         <v>43561</v>
@@ -5637,31 +5652,31 @@
         <v>75</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I37" s="36">
         <v>32</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L37" s="16">
         <v>43563</v>
@@ -5675,31 +5690,31 @@
         <v>80</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I38" s="36">
         <v>117</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L38" s="16">
         <v>43568</v>
@@ -5713,31 +5728,31 @@
         <v>81</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I39" s="36">
         <v>28</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L39" s="16">
         <v>43568</v>
@@ -5982,17 +5997,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BB3EA0-EA2A-4512-A82D-40FE52C52F07}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -6004,10 +6019,11 @@
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="38"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -6019,43 +6035,47 @@
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="37"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>19</v>
       </c>
@@ -6063,34 +6083,37 @@
         <v>1</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="16">
+        <v>9</v>
+      </c>
+      <c r="K4" s="36">
+        <v>120</v>
+      </c>
+      <c r="L4" s="16">
         <v>43456</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -6098,34 +6121,37 @@
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="16">
+        <v>9</v>
+      </c>
+      <c r="K5" s="36">
+        <v>120</v>
+      </c>
+      <c r="L5" s="16">
         <v>43456</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>19</v>
       </c>
@@ -6133,34 +6159,37 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="16">
+        <v>9</v>
+      </c>
+      <c r="K6" s="36">
+        <v>120</v>
+      </c>
+      <c r="L6" s="16">
         <v>43456</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>19</v>
       </c>
@@ -6168,34 +6197,37 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="16">
+        <v>9</v>
+      </c>
+      <c r="K7" s="36">
+        <v>120</v>
+      </c>
+      <c r="L7" s="16">
         <v>43456</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>19</v>
       </c>
@@ -6203,34 +6235,37 @@
         <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="16">
+        <v>9</v>
+      </c>
+      <c r="K8" s="36">
+        <v>120</v>
+      </c>
+      <c r="L8" s="16">
         <v>43456</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>19</v>
       </c>
@@ -6238,34 +6273,37 @@
         <v>6</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="16">
+        <v>9</v>
+      </c>
+      <c r="K9" s="36">
+        <v>120</v>
+      </c>
+      <c r="L9" s="16">
         <v>43456</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>19</v>
       </c>
@@ -6273,34 +6311,37 @@
         <v>7</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>50</v>
-      </c>
       <c r="J10" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="29">
+        <v>9</v>
+      </c>
+      <c r="K10" s="36">
+        <v>120</v>
+      </c>
+      <c r="L10" s="29">
         <v>43456</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>25</v>
       </c>
@@ -6308,34 +6349,37 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="16">
+        <v>9</v>
+      </c>
+      <c r="K11" s="36">
+        <v>120</v>
+      </c>
+      <c r="L11" s="16">
         <v>43464</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>25</v>
       </c>
@@ -6343,34 +6387,37 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="16">
+        <v>9</v>
+      </c>
+      <c r="K12" s="36">
+        <v>120</v>
+      </c>
+      <c r="L12" s="16">
         <v>43464</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>25</v>
       </c>
@@ -6378,34 +6425,37 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="16">
+        <v>9</v>
+      </c>
+      <c r="K13" s="36">
+        <v>120</v>
+      </c>
+      <c r="L13" s="16">
         <v>43464</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>25</v>
       </c>
@@ -6413,34 +6463,37 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="16">
+        <v>9</v>
+      </c>
+      <c r="K14" s="36">
+        <v>120</v>
+      </c>
+      <c r="L14" s="16">
         <v>43464</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>25</v>
       </c>
@@ -6448,34 +6501,37 @@
         <v>5</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="16">
+        <v>9</v>
+      </c>
+      <c r="K15" s="36">
+        <v>120</v>
+      </c>
+      <c r="L15" s="16">
         <v>43464</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>25</v>
       </c>
@@ -6483,34 +6539,37 @@
         <v>6</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="16">
+        <v>9</v>
+      </c>
+      <c r="K16" s="36">
+        <v>120</v>
+      </c>
+      <c r="L16" s="16">
         <v>43464</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>25</v>
       </c>
@@ -6518,34 +6577,37 @@
         <v>7</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="16">
+        <v>9</v>
+      </c>
+      <c r="K17" s="36">
+        <v>120</v>
+      </c>
+      <c r="L17" s="16">
         <v>43464</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>25</v>
       </c>
@@ -6553,34 +6615,37 @@
         <v>8</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="16">
+        <v>9</v>
+      </c>
+      <c r="K18" s="36">
+        <v>120</v>
+      </c>
+      <c r="L18" s="16">
         <v>43464</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>25</v>
       </c>
@@ -6588,34 +6653,37 @@
         <v>9</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="16">
+        <v>9</v>
+      </c>
+      <c r="K19" s="36">
+        <v>120</v>
+      </c>
+      <c r="L19" s="16">
         <v>43464</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23">
         <v>25</v>
       </c>
@@ -6623,34 +6691,37 @@
         <v>10</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="29">
+        <v>9</v>
+      </c>
+      <c r="K20" s="36">
+        <v>120</v>
+      </c>
+      <c r="L20" s="29">
         <v>43464</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>37</v>
       </c>
@@ -6658,34 +6729,37 @@
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="16">
+        <v>9</v>
+      </c>
+      <c r="K21" s="36">
+        <v>120</v>
+      </c>
+      <c r="L21" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>37</v>
       </c>
@@ -6693,34 +6767,37 @@
         <v>2</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="16">
+        <v>9</v>
+      </c>
+      <c r="K22" s="36">
+        <v>120</v>
+      </c>
+      <c r="L22" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>37</v>
       </c>
@@ -6728,34 +6805,37 @@
         <v>3</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="16">
+        <v>9</v>
+      </c>
+      <c r="K23" s="36">
+        <v>120</v>
+      </c>
+      <c r="L23" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>37</v>
       </c>
@@ -6763,34 +6843,37 @@
         <v>4</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="16">
+        <v>9</v>
+      </c>
+      <c r="K24" s="36">
+        <v>120</v>
+      </c>
+      <c r="L24" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>37</v>
       </c>
@@ -6798,34 +6881,37 @@
         <v>5</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="16">
+        <v>9</v>
+      </c>
+      <c r="K25" s="36">
+        <v>120</v>
+      </c>
+      <c r="L25" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>37</v>
       </c>
@@ -6833,34 +6919,37 @@
         <v>6</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="16">
+        <v>9</v>
+      </c>
+      <c r="K26" s="36">
+        <v>120</v>
+      </c>
+      <c r="L26" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>37</v>
       </c>
@@ -6868,34 +6957,37 @@
         <v>7</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="16">
+        <v>9</v>
+      </c>
+      <c r="K27" s="36">
+        <v>120</v>
+      </c>
+      <c r="L27" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>37</v>
       </c>
@@ -6903,34 +6995,37 @@
         <v>8</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="16">
+        <v>9</v>
+      </c>
+      <c r="K28" s="36">
+        <v>120</v>
+      </c>
+      <c r="L28" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>37</v>
       </c>
@@ -6938,34 +7033,37 @@
         <v>9</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="16">
+        <v>9</v>
+      </c>
+      <c r="K29" s="36">
+        <v>120</v>
+      </c>
+      <c r="L29" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>37</v>
       </c>
@@ -6973,34 +7071,37 @@
         <v>10</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="16">
+        <v>9</v>
+      </c>
+      <c r="K30" s="36">
+        <v>120</v>
+      </c>
+      <c r="L30" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>37</v>
       </c>
@@ -7008,34 +7109,37 @@
         <v>11</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="16">
+        <v>9</v>
+      </c>
+      <c r="K31" s="36">
+        <v>120</v>
+      </c>
+      <c r="L31" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23">
         <v>37</v>
       </c>
@@ -7043,34 +7147,37 @@
         <v>12</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="16">
+        <v>9</v>
+      </c>
+      <c r="K32" s="36">
+        <v>120</v>
+      </c>
+      <c r="L32" s="16">
         <v>43520</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>42</v>
       </c>
@@ -7078,34 +7185,37 @@
         <v>1</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="16">
+        <v>9</v>
+      </c>
+      <c r="K33" s="36">
+        <v>120</v>
+      </c>
+      <c r="L33" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>42</v>
       </c>
@@ -7113,34 +7223,37 @@
         <v>2</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="16">
+        <v>9</v>
+      </c>
+      <c r="K34" s="36">
+        <v>120</v>
+      </c>
+      <c r="L34" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>42</v>
       </c>
@@ -7148,34 +7261,37 @@
         <v>3</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="16">
+        <v>9</v>
+      </c>
+      <c r="K35" s="36">
+        <v>120</v>
+      </c>
+      <c r="L35" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>42</v>
       </c>
@@ -7183,34 +7299,37 @@
         <v>4</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="16">
+        <v>9</v>
+      </c>
+      <c r="K36" s="36">
+        <v>120</v>
+      </c>
+      <c r="L36" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>42</v>
       </c>
@@ -7218,34 +7337,37 @@
         <v>5</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="16">
+        <v>9</v>
+      </c>
+      <c r="K37" s="36">
+        <v>120</v>
+      </c>
+      <c r="L37" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>42</v>
       </c>
@@ -7253,34 +7375,37 @@
         <v>6</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="16">
+        <v>9</v>
+      </c>
+      <c r="K38" s="36">
+        <v>120</v>
+      </c>
+      <c r="L38" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>42</v>
       </c>
@@ -7288,34 +7413,37 @@
         <v>7</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="16">
+        <v>9</v>
+      </c>
+      <c r="K39" s="36">
+        <v>120</v>
+      </c>
+      <c r="L39" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>42</v>
       </c>
@@ -7323,34 +7451,37 @@
         <v>8</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="16">
+        <v>9</v>
+      </c>
+      <c r="K40" s="36">
+        <v>120</v>
+      </c>
+      <c r="L40" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>42</v>
       </c>
@@ -7358,34 +7489,37 @@
         <v>9</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="16">
+        <v>9</v>
+      </c>
+      <c r="K41" s="36">
+        <v>120</v>
+      </c>
+      <c r="L41" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>42</v>
       </c>
@@ -7393,34 +7527,37 @@
         <v>10</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="16">
+        <v>9</v>
+      </c>
+      <c r="K42" s="36">
+        <v>120</v>
+      </c>
+      <c r="L42" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -7428,34 +7565,37 @@
         <v>11</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="16">
+        <v>9</v>
+      </c>
+      <c r="K43" s="36">
+        <v>120</v>
+      </c>
+      <c r="L43" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -7463,34 +7603,37 @@
         <v>12</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="16">
+        <v>9</v>
+      </c>
+      <c r="K44" s="36">
+        <v>120</v>
+      </c>
+      <c r="L44" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>42</v>
       </c>
@@ -7498,34 +7641,37 @@
         <v>13</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="16">
+        <v>9</v>
+      </c>
+      <c r="K45" s="36">
+        <v>120</v>
+      </c>
+      <c r="L45" s="16">
         <v>43532</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23">
         <v>42</v>
       </c>
@@ -7533,34 +7679,37 @@
         <v>14</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="29">
+        <v>9</v>
+      </c>
+      <c r="K46" s="36">
+        <v>120</v>
+      </c>
+      <c r="L46" s="29">
         <v>43532</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>69</v>
       </c>
@@ -7568,34 +7717,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="16">
+        <v>9</v>
+      </c>
+      <c r="K47" s="36">
+        <v>120</v>
+      </c>
+      <c r="L47" s="16">
         <v>43561</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>69</v>
       </c>
@@ -7603,34 +7755,37 @@
         <v>2</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="16">
+        <v>9</v>
+      </c>
+      <c r="K48" s="36">
+        <v>120</v>
+      </c>
+      <c r="L48" s="16">
         <v>43561</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>69</v>
       </c>
@@ -7638,34 +7793,37 @@
         <v>3</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="16">
+        <v>9</v>
+      </c>
+      <c r="K49" s="36">
+        <v>120</v>
+      </c>
+      <c r="L49" s="16">
         <v>43561</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>69</v>
       </c>
@@ -7673,34 +7831,37 @@
         <v>4</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="16">
+        <v>9</v>
+      </c>
+      <c r="K50" s="36">
+        <v>120</v>
+      </c>
+      <c r="L50" s="16">
         <v>43561</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>69</v>
       </c>
@@ -7708,34 +7869,37 @@
         <v>5</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="16">
+        <v>9</v>
+      </c>
+      <c r="K51" s="36">
+        <v>120</v>
+      </c>
+      <c r="L51" s="16">
         <v>43561</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>69</v>
       </c>
@@ -7743,34 +7907,37 @@
         <v>6</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="16">
+        <v>9</v>
+      </c>
+      <c r="K52" s="36">
+        <v>120</v>
+      </c>
+      <c r="L52" s="16">
         <v>43561</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>69</v>
       </c>
@@ -7778,34 +7945,37 @@
         <v>7</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="16">
+        <v>9</v>
+      </c>
+      <c r="K53" s="36">
+        <v>120</v>
+      </c>
+      <c r="L53" s="16">
         <v>43561</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>69</v>
       </c>
@@ -7813,34 +7983,37 @@
         <v>8</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="16">
+        <v>9</v>
+      </c>
+      <c r="K54" s="36">
+        <v>120</v>
+      </c>
+      <c r="L54" s="16">
         <v>43561</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>69</v>
       </c>
@@ -7848,34 +8021,37 @@
         <v>9</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="16">
+        <v>9</v>
+      </c>
+      <c r="K55" s="36">
+        <v>120</v>
+      </c>
+      <c r="L55" s="16">
         <v>43561</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="23">
         <v>69</v>
       </c>
@@ -7883,34 +8059,37 @@
         <v>10</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J56" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="29">
+        <v>9</v>
+      </c>
+      <c r="K56" s="36">
+        <v>120</v>
+      </c>
+      <c r="L56" s="29">
         <v>43561</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
         <v>76</v>
       </c>
@@ -7918,34 +8097,37 @@
         <v>1</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="30">
+        <v>9</v>
+      </c>
+      <c r="K57" s="36">
+        <v>120</v>
+      </c>
+      <c r="L57" s="30">
         <v>43563</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>76</v>
       </c>
@@ -7953,34 +8135,37 @@
         <v>2</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="30">
+        <v>9</v>
+      </c>
+      <c r="K58" s="36">
+        <v>120</v>
+      </c>
+      <c r="L58" s="30">
         <v>43563</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>76</v>
       </c>
@@ -7988,34 +8173,37 @@
         <v>3</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="30">
+        <v>9</v>
+      </c>
+      <c r="K59" s="36">
+        <v>120</v>
+      </c>
+      <c r="L59" s="30">
         <v>43563</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>76</v>
       </c>
@@ -8023,34 +8211,37 @@
         <v>4</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="30">
+        <v>9</v>
+      </c>
+      <c r="K60" s="36">
+        <v>120</v>
+      </c>
+      <c r="L60" s="30">
         <v>43563</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>76</v>
       </c>
@@ -8058,34 +8249,37 @@
         <v>5</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="30">
+        <v>9</v>
+      </c>
+      <c r="K61" s="36">
+        <v>120</v>
+      </c>
+      <c r="L61" s="30">
         <v>43563</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>76</v>
       </c>
@@ -8093,34 +8287,37 @@
         <v>6</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="30">
+        <v>9</v>
+      </c>
+      <c r="K62" s="36">
+        <v>120</v>
+      </c>
+      <c r="L62" s="30">
         <v>43563</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>76</v>
       </c>
@@ -8128,34 +8325,37 @@
         <v>7</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="30">
+        <v>9</v>
+      </c>
+      <c r="K63" s="36">
+        <v>120</v>
+      </c>
+      <c r="L63" s="30">
         <v>43563</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>76</v>
       </c>
@@ -8163,34 +8363,37 @@
         <v>8</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="30">
+        <v>9</v>
+      </c>
+      <c r="K64" s="36">
+        <v>120</v>
+      </c>
+      <c r="L64" s="30">
         <v>43563</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="24">
         <v>76</v>
       </c>
@@ -8198,34 +8401,37 @@
         <v>9</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J65" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="31">
+        <v>9</v>
+      </c>
+      <c r="K65" s="36">
+        <v>120</v>
+      </c>
+      <c r="L65" s="31">
         <v>43563</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -8236,9 +8442,10 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
-      <c r="K66" s="8"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="14"/>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -8249,9 +8456,10 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
-      <c r="K67" s="8"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K67" s="14"/>
+      <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -8262,9 +8470,10 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
-      <c r="K68" s="8"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="14"/>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -8275,9 +8484,10 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
-      <c r="K69" s="8"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="14"/>
+      <c r="L69" s="8"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -8288,9 +8498,10 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
-      <c r="K70" s="8"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="14"/>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -8301,9 +8512,10 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
-      <c r="K71" s="8"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="14"/>
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -8314,9 +8526,10 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
-      <c r="K72" s="8"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="14"/>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -8327,9 +8540,10 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
-      <c r="K73" s="8"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="14"/>
+      <c r="L73" s="8"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -8340,9 +8554,10 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
-      <c r="K74" s="8"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="14"/>
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -8353,9 +8568,10 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
-      <c r="K75" s="8"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="14"/>
+      <c r="L75" s="8"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -8366,9 +8582,10 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
-      <c r="K76" s="8"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="14"/>
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -8379,9 +8596,10 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
-      <c r="K77" s="8"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="14"/>
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -8392,9 +8610,10 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
-      <c r="K78" s="8"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78" s="14"/>
+      <c r="L78" s="8"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -8405,9 +8624,10 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
-      <c r="K79" s="8"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K79" s="14"/>
+      <c r="L79" s="8"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -8418,9 +8638,10 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
-      <c r="K80" s="8"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="14"/>
+      <c r="L80" s="8"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -8431,9 +8652,10 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
-      <c r="K81" s="8"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="14"/>
+      <c r="L81" s="8"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -8444,9 +8666,10 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
-      <c r="K82" s="8"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K82" s="14"/>
+      <c r="L82" s="8"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -8457,9 +8680,10 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
-      <c r="K83" s="8"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="14"/>
+      <c r="L83" s="8"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -8470,9 +8694,10 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
-      <c r="K84" s="8"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="14"/>
+      <c r="L84" s="8"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -8483,9 +8708,10 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
-      <c r="K85" s="8"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="14"/>
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -8496,9 +8722,10 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
-      <c r="K86" s="8"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="14"/>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -8509,9 +8736,10 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
-      <c r="K87" s="8"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="14"/>
+      <c r="L87" s="8"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -8522,9 +8750,10 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
-      <c r="K88" s="8"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="14"/>
+      <c r="L88" s="8"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -8535,9 +8764,10 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
-      <c r="K89" s="8"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="14"/>
+      <c r="L89" s="8"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -8548,9 +8778,10 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
-      <c r="K90" s="8"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="14"/>
+      <c r="L90" s="8"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -8561,9 +8792,10 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
-      <c r="K91" s="8"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="14"/>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -8574,9 +8806,10 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
-      <c r="K92" s="8"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="14"/>
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -8587,9 +8820,10 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
-      <c r="K93" s="8"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="14"/>
+      <c r="L93" s="8"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -8600,9 +8834,10 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
-      <c r="K94" s="8"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="14"/>
+      <c r="L94" s="8"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -8613,9 +8848,10 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
-      <c r="K95" s="8"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K95" s="14"/>
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -8626,13 +8862,15 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
-      <c r="K96" s="8"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -8645,7 +8883,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8655,20 +8893,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
